--- a/data/经济/受教育程度.xlsx
+++ b/data/经济/受教育程度.xlsx
@@ -27,51 +27,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
-  <si>
-    <r>
-      <t>表</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>学前教育</t>
+  </si>
+  <si>
+    <t>小学教育</t>
+  </si>
+  <si>
+    <t>中学教育</t>
+  </si>
+  <si>
+    <t>学校数</t>
+  </si>
+  <si>
+    <t>在校生数</t>
+  </si>
+  <si>
+    <t>专任教师</t>
+  </si>
+  <si>
+    <t>专任救师</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号港澳大湾区基础教盲现况统计表</t>
-    </r>
-  </si>
-  <si>
-    <t>学前教育</t>
-  </si>
-  <si>
-    <t>小学教育</t>
-  </si>
-  <si>
-    <t>中学教育</t>
-  </si>
-  <si>
-    <t>学校数</t>
-  </si>
-  <si>
-    <t>在校生数</t>
-  </si>
-  <si>
-    <t>专任教师</t>
-  </si>
-  <si>
-    <t>专任救师</t>
-  </si>
-  <si>
-    <r>
       <t>(</t>
     </r>
     <r>
@@ -93,6 +77,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -132,6 +121,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>中</t>
     </r>
     <r>
@@ -166,40 +160,18 @@
   <si>
     <t>总数</t>
   </si>
-  <si>
-    <r>
-      <t>注：表中数据依据粤港澳各地区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年教育统计年鉴整理。</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="\ \ \ @"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -845,22 +817,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -881,12 +853,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1207,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9083333333333" defaultRowHeight="20.5" customHeight="1"/>
@@ -1219,95 +1185,113 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
+      <c r="B4" s="7">
+        <v>1966</v>
+      </c>
+      <c r="C4" s="8">
+        <v>52.8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>980</v>
+      </c>
+      <c r="F4" s="8">
+        <v>110.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <v>534</v>
+      </c>
+      <c r="I4" s="8">
+        <v>52.6</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4.4</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
@@ -1315,31 +1299,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>1966</v>
+        <v>1836</v>
       </c>
       <c r="C5" s="8">
-        <v>52.8</v>
+        <v>54.5</v>
       </c>
       <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>340</v>
+      </c>
+      <c r="F5" s="8">
+        <v>106.9</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>417</v>
+      </c>
+      <c r="I5" s="8">
+        <v>47.7</v>
+      </c>
+      <c r="J5" s="8">
         <v>3.8</v>
-      </c>
-      <c r="E5" s="7">
-        <v>980</v>
-      </c>
-      <c r="F5" s="8">
-        <v>110.5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7">
-        <v>534</v>
-      </c>
-      <c r="I5" s="8">
-        <v>52.6</v>
-      </c>
-      <c r="J5" s="8">
-        <v>4.4</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
@@ -1347,31 +1331,31 @@
         <v>11</v>
       </c>
       <c r="B6" s="7">
-        <v>1836</v>
+        <v>346</v>
       </c>
       <c r="C6" s="8">
-        <v>54.5</v>
+        <v>8.1</v>
       </c>
       <c r="D6" s="8">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="7">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="F6" s="8">
-        <v>106.9</v>
+        <v>18.2</v>
       </c>
       <c r="G6" s="8">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="7">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="I6" s="8">
-        <v>47.7</v>
+        <v>10.1</v>
       </c>
       <c r="J6" s="8">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
@@ -1379,31 +1363,31 @@
         <v>12</v>
       </c>
       <c r="B7" s="7">
-        <v>346</v>
+        <v>1016</v>
       </c>
       <c r="C7" s="8">
-        <v>8.1</v>
+        <v>31.8</v>
       </c>
       <c r="D7" s="8">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="E7" s="7">
-        <v>131</v>
+        <v>417</v>
       </c>
       <c r="F7" s="8">
-        <v>18.2</v>
+        <v>61.7</v>
       </c>
       <c r="G7" s="8">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="I7" s="8">
-        <v>10.1</v>
+        <v>35.6</v>
       </c>
       <c r="J7" s="8">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
@@ -1411,31 +1395,31 @@
         <v>13</v>
       </c>
       <c r="B8" s="7">
-        <v>1016</v>
+        <v>780</v>
       </c>
       <c r="C8" s="8">
-        <v>31.8</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>554</v>
+      </c>
+      <c r="F8" s="8">
+        <v>60.9</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>277</v>
+      </c>
+      <c r="I8" s="8">
+        <v>32.8</v>
+      </c>
+      <c r="J8" s="8">
         <v>2.3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>417</v>
-      </c>
-      <c r="F8" s="8">
-        <v>61.7</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>212</v>
-      </c>
-      <c r="I8" s="8">
-        <v>35.6</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2.6</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
@@ -1443,28 +1427,28 @@
         <v>14</v>
       </c>
       <c r="B9" s="7">
-        <v>780</v>
+        <v>1171</v>
       </c>
       <c r="C9" s="8">
-        <v>23</v>
+        <v>36.5</v>
       </c>
       <c r="D9" s="8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="7">
-        <v>554</v>
+        <v>331</v>
       </c>
       <c r="F9" s="8">
-        <v>60.9</v>
+        <v>83.7</v>
       </c>
       <c r="G9" s="8">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="7">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="I9" s="8">
-        <v>32.8</v>
+        <v>34.9</v>
       </c>
       <c r="J9" s="8">
         <v>2.3</v>
@@ -1475,31 +1459,31 @@
         <v>15</v>
       </c>
       <c r="B10" s="7">
-        <v>1171</v>
+        <v>544</v>
       </c>
       <c r="C10" s="8">
-        <v>36.5</v>
+        <v>14.8</v>
       </c>
       <c r="D10" s="8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="F10" s="8">
-        <v>83.7</v>
+        <v>32.6</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H10" s="7">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="I10" s="8">
-        <v>34.9</v>
+        <v>16.5</v>
       </c>
       <c r="J10" s="8">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
@@ -1507,31 +1491,31 @@
         <v>16</v>
       </c>
       <c r="B11" s="7">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="C11" s="8">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="F11" s="8">
-        <v>32.6</v>
+        <v>34.9</v>
       </c>
       <c r="G11" s="8">
         <v>1.7</v>
       </c>
       <c r="H11" s="7">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="I11" s="8">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="J11" s="8">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
@@ -1539,28 +1523,28 @@
         <v>17</v>
       </c>
       <c r="B12" s="7">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="C12" s="8">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E12" s="7">
-        <v>326</v>
+        <v>233</v>
       </c>
       <c r="F12" s="8">
-        <v>34.9</v>
+        <v>40</v>
       </c>
       <c r="G12" s="8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I12" s="8">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="J12" s="8">
         <v>1.9</v>
@@ -1571,151 +1555,103 @@
         <v>18</v>
       </c>
       <c r="B13" s="7">
-        <v>652</v>
+        <v>1049</v>
       </c>
       <c r="C13" s="8">
-        <v>15.6</v>
+        <v>17.4</v>
       </c>
       <c r="D13" s="8">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="E13" s="7">
-        <v>233</v>
+        <v>587</v>
       </c>
       <c r="F13" s="8">
-        <v>40</v>
+        <v>37.3</v>
       </c>
       <c r="G13" s="8">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H13" s="7">
-        <v>187</v>
+        <v>504</v>
       </c>
       <c r="I13" s="8">
-        <v>23.2</v>
+        <v>32.7</v>
       </c>
       <c r="J13" s="8">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
-        <v>1049</v>
-      </c>
-      <c r="C14" s="8">
-        <v>17.4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="E14" s="7">
-        <v>587</v>
-      </c>
-      <c r="F14" s="8">
-        <v>37.3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="H14" s="7">
-        <v>504</v>
-      </c>
-      <c r="I14" s="8">
-        <v>32.7</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2.9</v>
+      <c r="B14" s="10">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>61</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>47</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10">
-        <v>58</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1.9</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>61</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="10">
-        <v>47</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2.6</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="B15" s="7">
         <v>10050</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C15" s="8">
         <v>270.9</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D15" s="8">
         <v>19.2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E15" s="7">
         <v>4172</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F15" s="8">
         <v>590.2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G15" s="8">
         <v>31.6</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H15" s="7">
         <v>2797</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I15" s="8">
         <v>310.9</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J15" s="8">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
